--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.434</v>
+        <v>16.355</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.305</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.661</v>
+        <v>14.651</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.283</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.794</v>
+        <v>7.262</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.725224734426794</v>
+        <v>5.853702596290777</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.84058062212701</v>
+        <v>9.75924993360398</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.59836965099815</v>
+        <v>15.86594532432614</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.72748166737322</v>
+        <v>-2.947392836656078</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.0862386609016</v>
+        <v>10.62188868726093</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.08474992905145</v>
+        <v>12.82300687298867</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.09195474183126</v>
+        <v>1.657644272623809</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.75245013228734</v>
+        <v>23.33755297862837</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.88620032923674</v>
+        <v>26.08104750434044</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.28662383949086</v>
+        <v>17.04310771984261</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.32010135441957</v>
+        <v>20.63825280263805</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.35518898335406</v>
+        <v>25.8677898683523</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.4608940498537</v>
+        <v>5.066284578943556</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.21666929835931</v>
+        <v>10.82221506816041</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.1401619914912</v>
+        <v>21.62152549416801</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.3723388587053</v>
+        <v>12.62136159560164</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.81354274144884</v>
+        <v>26.11289198384335</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.69261751685707</v>
+        <v>34.41502710997337</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.83266757499673</v>
+        <v>0.8687957424328872</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.24233068618867</v>
+        <v>13.94139463797991</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.48066641619354</v>
+        <v>21.79983676099735</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.46228979814023</v>
+        <v>3.044787689634624</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.39859170245877</v>
+        <v>30.30883655100687</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.70560539151354</v>
+        <v>42.78070112780595</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.8901431284763</v>
+        <v>30.73321417519516</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.33792445579008</v>
+        <v>44.10942215162555</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>48.60883130683594</v>
+        <v>53.23130878181657</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.70881210819687</v>
+        <v>6.674090653758455</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.60149558899133</v>
+        <v>31.83406096974923</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.33782845931014</v>
+        <v>43.12280096630653</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.77754931565761</v>
+        <v>15.70773028929801</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.77205001568319</v>
+        <v>30.07592823487616</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.04590220605286</v>
+        <v>37.71319957441342</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.04160235764038</v>
+        <v>-0.04093617021869989</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.51564665348511</v>
+        <v>18.3464167736528</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.0005096637831</v>
+        <v>25.09279955569033</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.40282546900688</v>
+        <v>4.050750784994371</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.8898444621681</v>
+        <v>36.87207820629082</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>47.64304887322837</v>
+        <v>49.97708184249326</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44.84957099356368</v>
+        <v>44.84817393032375</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.61156530219923</v>
+        <v>56.33316533789662</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57.01618122423365</v>
+        <v>65.52180524646639</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.39004869329813</v>
+        <v>11.56430706863495</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>46.15444607220311</v>
+        <v>41.58648294212494</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.27302089380203</v>
+        <v>53.68787910339417</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.68169740292379</v>
+        <v>6.487319519946265</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.25844328307814</v>
+        <v>29.59092621148417</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.02678975536436</v>
+        <v>36.28878682505331</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.12282824218482</v>
+        <v>3.127851906547317</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.90604421608665</v>
+        <v>33.06473475453303</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.82266629934682</v>
+        <v>37.14555352456985</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.29321828296726</v>
+        <v>7.707797189819608</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.43091669874705</v>
+        <v>55.83734947539578</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.55040363407127</v>
+        <v>59.07869083266559</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.84437292743388</v>
+        <v>46.2909283665203</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.85510047180891</v>
+        <v>52.4086688266726</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.70610059181069</v>
+        <v>55.00490745321876</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.80763993014356</v>
+        <v>8.209732376286293</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.2685110008503</v>
+        <v>38.83616159867763</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.42825038778135</v>
+        <v>47.58905769243775</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.90659098421407</v>
+        <v>7.626607695595482</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.68974718996677</v>
+        <v>30.97423305807326</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.54543320741655</v>
+        <v>37.26744017641786</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.700555705768874</v>
+        <v>0.4848905238236085</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.40635848973355</v>
+        <v>22.97143755088091</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.52827923844894</v>
+        <v>31.43455807876149</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.07913185217454</v>
+        <v>1.481973704847487</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.36596228716996</v>
+        <v>44.45466107703761</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.61937216517794</v>
+        <v>52.75427354722386</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.98498564968077</v>
+        <v>43.17948126676644</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.35587741762172</v>
+        <v>56.20097803802413</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>49.43100502435738</v>
+        <v>62.21602366000153</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>17.81151368451344</v>
+        <v>4.386742224071774</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.20207573160666</v>
+        <v>45.25763002620896</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.17292386313711</v>
+        <v>51.99326186421166</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.31973927429147</v>
+        <v>9.114147096179726</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.73613293517759</v>
+        <v>34.88547079966713</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.94658279519912</v>
+        <v>43.3260105895214</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>13.99670867480459</v>
+        <v>-1.43894895343815</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.8630939086615</v>
+        <v>27.16931370672443</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>37.16220470654525</v>
+        <v>35.75053528118391</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.0356955070534</v>
+        <v>1.937148198769275</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.94620509254246</v>
+        <v>52.69473939205002</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.61660161256465</v>
+        <v>66.12769364334912</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.91487301260546</v>
+        <v>55.21642578536929</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.58800044448139</v>
+        <v>69.33957925124315</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>57.82747069222094</v>
+        <v>77.4230689378961</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.42037893252893</v>
+        <v>4.843319958266836</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.78972127091121</v>
+        <v>53.96305002472212</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>53.08580514796915</v>
+        <v>62.20973415065449</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.47890585014294</v>
+        <v>15.68595775098717</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.87363177455462</v>
+        <v>29.16552453202481</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.57108978952508</v>
+        <v>34.15111450202194</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.594024134063298</v>
+        <v>4.348330660162432</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.21565354128762</v>
+        <v>28.5584857625181</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.0663325119618</v>
+        <v>30.96204517131792</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.72134036472491</v>
+        <v>10.45006917521969</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.67282480824374</v>
+        <v>51.75724960780703</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.73134499090305</v>
+        <v>51.45581173720503</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.22912608143233</v>
+        <v>40.48268944255128</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.14342776831622</v>
+        <v>48.98474740079705</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.94639781694035</v>
+        <v>49.54782316038195</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.60604244766175</v>
+        <v>18.12108477405003</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.61784372316601</v>
+        <v>32.34601133504141</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.76133107675864</v>
+        <v>40.07997141413844</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.27466433966467</v>
+        <v>19.93512187975918</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.89716799670467</v>
+        <v>37.30782158768093</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.68464708582025</v>
+        <v>41.67898241716377</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.762859883646808</v>
+        <v>3.920420477553524</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.33195569387244</v>
+        <v>26.55836141850368</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.39510212225029</v>
+        <v>32.30840454520592</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.13022964471381</v>
+        <v>6.904585504979341</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.25408197809816</v>
+        <v>48.12152184064492</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.44901988173438</v>
+        <v>53.63675228557449</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.9563380553184</v>
+        <v>46.85117522192104</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.22886450741287</v>
+        <v>59.59268340046486</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.25533083993622</v>
+        <v>63.0790755580402</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.16225755239613</v>
+        <v>18.55790517419505</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.12629134205073</v>
+        <v>45.88153035962814</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>45.0807566046818</v>
+        <v>52.68785495692035</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.72017076201765</v>
+        <v>19.47079002788173</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.97479209924137</v>
+        <v>37.83032523622846</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.1112691353223</v>
+        <v>44.87639555106678</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.08393070585483</v>
+        <v>1.277955437280543</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.81385732416918</v>
+        <v>28.88646681649357</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.04620367821943</v>
+        <v>34.79908875749591</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.12691974217184</v>
+        <v>5.735300504462757</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.87630840606394</v>
+        <v>53.31515049486677</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.48150033193131</v>
+        <v>64.10366844753432</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.93752304950404</v>
+        <v>57.30011923966664</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.51477089627854</v>
+        <v>70.23282780281278</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.70748813956961</v>
+        <v>76.2652376988169</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.7891939857064</v>
+        <v>19.90724719299776</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.75193132238262</v>
+        <v>54.46539517184728</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.01297228499678</v>
+        <v>62.6852304082563</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.29250097276398</v>
+        <v>6.0995493590179</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.00205706031859</v>
+        <v>10.57300953258289</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.64691285268106</v>
+        <v>16.04286174042195</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.403149424096323</v>
+        <v>-2.681019403905623</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.28194064549687</v>
+        <v>10.2918080265854</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.1480491897938</v>
+        <v>13.40219789887873</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.67599787063397</v>
+        <v>3.192208578505785</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.85575723466648</v>
+        <v>23.56167026218004</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.87176155939798</v>
+        <v>26.66432415904547</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.18026968471167</v>
+        <v>19.24704162510103</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.06041510812</v>
+        <v>22.44073460626752</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.04047366142593</v>
+        <v>28.66063799273496</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.11154755753562</v>
+        <v>20.98602959686949</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.23118869364063</v>
+        <v>27.04114685646688</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40.03390915921597</v>
+        <v>35.28113895959019</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.74512627558605</v>
+        <v>11.31383690162924</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.76163120543471</v>
+        <v>24.62345133309546</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.53261165436451</v>
+        <v>32.06732380925953</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.303409313225213</v>
+        <v>-0.1805432704697409</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.22235155404844</v>
+        <v>12.84208168702913</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.32792909133724</v>
+        <v>20.64236863376798</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.8340608266919</v>
+        <v>1.752200135392826</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.26974159059171</v>
+        <v>25.58169954271909</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>39.46321368939928</v>
+        <v>38.1994322094577</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.58089960371849</v>
+        <v>25.75100501779073</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>44.86821246228804</v>
+        <v>38.90762097997694</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.06923888243852</v>
+        <v>49.80388303896353</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.14878132791388</v>
+        <v>10.61255006825101</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.36376439192669</v>
+        <v>34.50449679211378</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>43.99162833359063</v>
+        <v>42.64270102572433</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.15319639552661</v>
+        <v>17.62321241831469</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.7266366947943</v>
+        <v>30.79764358955239</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.8836164570417</v>
+        <v>37.54246656295615</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.47703441548046</v>
+        <v>0.1147619012611223</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.45836141741503</v>
+        <v>17.78057777467546</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.80025729980364</v>
+        <v>24.12872938766802</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.71394511208631</v>
+        <v>5.36325917760999</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.70285231850495</v>
+        <v>34.95399234284493</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.33686038112731</v>
+        <v>48.62623247104726</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.45016896056286</v>
+        <v>40.1718471804149</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.04337706326962</v>
+        <v>50.8435272892825</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.38867048511798</v>
+        <v>63.5276264914189</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.75418747245299</v>
+        <v>16.98296608813294</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.83847378385155</v>
+        <v>45.10050545818094</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>51.82982954194451</v>
+        <v>53.39038108152411</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.11223073900032</v>
+        <v>11.15204605496898</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.48289009923374</v>
+        <v>23.5280110452377</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.12403193388629</v>
+        <v>28.84201725589435</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.371216577969825</v>
+        <v>2.778000400814211</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.04108944719153</v>
+        <v>26.4310767346005</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.89717404045542</v>
+        <v>29.69944704997806</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.08127785794247</v>
+        <v>10.18351777377642</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.02503094639132</v>
+        <v>48.08067645960847</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.04295802463478</v>
+        <v>49.62397010321496</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.90172986577943</v>
+        <v>32.88894446415182</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.04495181089467</v>
+        <v>39.21546105260929</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>47.95156655380683</v>
+        <v>42.08721116505978</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.72794989186993</v>
+        <v>15.92417712926384</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.61369460472547</v>
+        <v>24.77741353548261</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>43.45902193987705</v>
+        <v>32.73830171029769</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.892020078367</v>
+        <v>22.53390848657829</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.56595856561269</v>
+        <v>39.79089596440241</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.31054281718444</v>
+        <v>42.96882477076676</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.59823613143111</v>
+        <v>8.42961533300663</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.30907769612634</v>
+        <v>29.28648098930944</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.38155776649442</v>
+        <v>34.19344203561879</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.59504773950732</v>
+        <v>13.08086686047792</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.78784186414083</v>
+        <v>50.59511944083159</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>43.95870731570602</v>
+        <v>56.57702000764594</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.64913034833244</v>
+        <v>49.00008895992072</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>49.2033581620683</v>
+        <v>61.83852796337071</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.32236552862743</v>
+        <v>66.71515227163559</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.19424570383121</v>
+        <v>26.4185538492304</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.16531944058617</v>
+        <v>50.79766316378868</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>47.81584747307922</v>
+        <v>56.1473445966022</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.60000153071538</v>
+        <v>21.30565761286742</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.81083992469025</v>
+        <v>38.79936168320646</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.95421036755776</v>
+        <v>42.9533393329676</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15.06473877020756</v>
+        <v>2.759899284888036</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.81156633209499</v>
+        <v>26.59541289364299</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.12944411299063</v>
+        <v>31.46628566899361</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.71043092177508</v>
+        <v>8.809141668954515</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.43172145124767</v>
+        <v>51.28204338452274</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>51.05987158263509</v>
+        <v>61.14127920140285</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.80223404876573</v>
+        <v>55.3023526264483</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.66297077119141</v>
+        <v>66.64736448922679</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.94820243145013</v>
+        <v>73.48261858935508</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.09115062755428</v>
+        <v>23.69444000598675</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.94349308977332</v>
+        <v>53.30492032158563</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>54.96978456702493</v>
+        <v>61.57534238717566</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.80169468834209</v>
+        <v>8.646123172252619</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>44.0232422456374</v>
+        <v>24.10367817038773</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47.19646924024538</v>
+        <v>30.44201055823992</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.86514642852518</v>
+        <v>3.963916221608951</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>42.16664199746221</v>
+        <v>31.09444709058177</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>45.47601360490118</v>
+        <v>34.57889968300037</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.85221525398387</v>
+        <v>8.699161971678397</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.29108338635874</v>
+        <v>54.04347131336552</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>56.77484812751199</v>
+        <v>55.83476595738301</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.36717491867209</v>
+        <v>33.74711268185802</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.75350185935797</v>
+        <v>41.04610481492897</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>61.11113041576827</v>
+        <v>43.56789903727007</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.65745542525123</v>
+        <v>6.500506312787081</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>50.97523293286213</v>
+        <v>20.33716581923001</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>56.30538579100984</v>
+        <v>26.78802256811568</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.91585287007884</v>
+        <v>19.20394605368944</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.35669800404285</v>
+        <v>42.19292645886638</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.60213624953872</v>
+        <v>44.76610191560367</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.42766074986037</v>
+        <v>4.948204204062193</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.71842189240414</v>
+        <v>33.22303264565208</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.19321907064381</v>
+        <v>37.91039061584318</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.67558182845791</v>
+        <v>8.433012513477848</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.27801756181807</v>
+        <v>57.91327539635024</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>59.87722939845811</v>
+        <v>61.05978998477284</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.44158199730255</v>
+        <v>51.44017293643867</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.19561065188442</v>
+        <v>63.77942171868568</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.74682716127417</v>
+        <v>69.31731110045969</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.6378811599305</v>
+        <v>17.80124740013338</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>54.84748491667001</v>
+        <v>56.0737754204088</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>60.00489625889759</v>
+        <v>59.8510305850765</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.23090429844475</v>
+        <v>20.77920387771033</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>51.14314876852222</v>
+        <v>41.79123961147398</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>54.71143488776052</v>
+        <v>47.01402541823596</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.51908094101045</v>
+        <v>1.586533227126036</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.71199535877094</v>
+        <v>29.53693721305754</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.35176870406825</v>
+        <v>35.23397546065271</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>43.09183539821886</v>
+        <v>6.94004120726682</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.15162656051532</v>
+        <v>58.03840352889966</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.13046844747916</v>
+        <v>67.78471932481918</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>59.80841132423801</v>
+        <v>58.01784510968037</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.79746733123653</v>
+        <v>70.82971800642986</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>70.49016350829298</v>
+        <v>76.20778622988493</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.87354341434403</v>
+        <v>15.13594378953751</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>59.89602923124872</v>
+        <v>57.63867330029606</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>65.32848045676894</v>
+        <v>64.42261714910248</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.74211153256622</v>
+        <v>3.736673287684116</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.99921094115334</v>
+        <v>5.232182400753786</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.46994231440856</v>
+        <v>10.00844086154309</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.87594692101136</v>
+        <v>-1.353672091646473</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.11544135856384</v>
+        <v>8.869741564047953</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.78620616933518</v>
+        <v>10.79363315149677</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.75197514872786</v>
+        <v>0.8719409979234918</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.10144310949104</v>
+        <v>18.10573112760185</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>42.89197148958789</v>
+        <v>20.45048922704381</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.3869256926167</v>
+        <v>17.53784720306078</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.31398629320616</v>
+        <v>23.60301434444286</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.93083249965704</v>
+        <v>24.19715545857678</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.03630475025708</v>
+        <v>4.679035221322295</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.44751293246659</v>
+        <v>8.940756145710324</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>44.91756991512335</v>
+        <v>15.779368868959</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.88410744219861</v>
+        <v>10.27956243577817</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.42622263218038</v>
+        <v>23.44550439618506</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.99866308910803</v>
+        <v>30.79956313364894</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.48969690981845</v>
+        <v>2.120200594902052</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.76559141969311</v>
+        <v>16.20901599379629</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.64635460764545</v>
+        <v>24.22341467810828</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.60835995792451</v>
+        <v>2.983831930589325</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.19616279454885</v>
+        <v>30.83766951205976</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.13685741770581</v>
+        <v>41.1579853032389</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.4654660537624</v>
+        <v>30.36789172461791</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.73368716398097</v>
+        <v>42.74172306285718</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52.58472985640057</v>
+        <v>47.07306601522497</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.80638805988107</v>
+        <v>5.829212358027668</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.24019131202332</v>
+        <v>31.4869397971589</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.5270295171742</v>
+        <v>39.32132293011337</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.16849472261987</v>
+        <v>11.89658404664794</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.22263593050815</v>
+        <v>25.88876108748777</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.12413007037867</v>
+        <v>34.4142892029382</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21.75929651692628</v>
+        <v>0.4218550860519343</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.99627998491566</v>
+        <v>19.67630863559735</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.06691670748597</v>
+        <v>26.84902321330812</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.40358552125885</v>
+        <v>4.534023871570874</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>49.51158240691021</v>
+        <v>38.2663229589571</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>53.81714959814801</v>
+        <v>49.92153701329896</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.11453823116852</v>
+        <v>46.22725141016154</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.6688063090102</v>
+        <v>58.91913616528133</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.60719685443256</v>
+        <v>62.29172644693822</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.28983189815165</v>
+        <v>14.74719578997572</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>50.5089477295395</v>
+        <v>44.27877961074367</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>56.11732304237376</v>
+        <v>53.37125384998424</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.29931945140388</v>
+        <v>2.584639198088855</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.7544420569229</v>
+        <v>3.887682741196489</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.31097417615162</v>
+        <v>11.18493757069295</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>11.96394072825923</v>
+        <v>-1.421093675727729</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.57995158821139</v>
+        <v>7.287332139521791</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>32.34337166765609</v>
+        <v>11.74810502784125</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.35905481003343</v>
+        <v>-0.4886949659518791</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.18952411042169</v>
+        <v>16.19577489241377</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.12632649758827</v>
+        <v>20.49635199441921</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.46388926301247</v>
+        <v>8.868504937333721</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.14593369675666</v>
+        <v>14.40266678088362</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>50.05498354080415</v>
+        <v>19.85935087927837</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.18654878183644</v>
+        <v>2.843970032048347</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.93641872885417</v>
+        <v>4.765155159438851</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>45.59392087670705</v>
+        <v>9.180332387157979</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.48506527184773</v>
+        <v>1.203079605437793</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.22442889554312</v>
+        <v>5.708267377742619</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>38.88122389079025</v>
+        <v>15.77661995574584</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.62816916116132</v>
+        <v>-3.393713918563392</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.2729366632865</v>
+        <v>0.8733755557864171</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.24352399808087</v>
+        <v>10.8434911780636</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.26696501897835</v>
+        <v>-5.203311632577428</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.33070258148472</v>
+        <v>9.288314862249669</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>46.41516711264006</v>
+        <v>23.77809298536266</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.63899547891902</v>
+        <v>8.64461950307747</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>50.70763473098146</v>
+        <v>24.48432020506154</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>53.82900721913097</v>
+        <v>36.92426852578159</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.08525578477806</v>
+        <v>-4.463896139190016</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.85827707852643</v>
+        <v>10.35708384042094</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.33030172631297</v>
+        <v>14.96182013248173</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.00157177407614</v>
+        <v>3.744484550662627</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>40.26309747925568</v>
+        <v>9.498335825729811</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.31617326684015</v>
+        <v>22.51676327203418</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.93031288560809</v>
+        <v>-3.965099284972968</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.57469612582195</v>
+        <v>4.119534299841629</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.80338997756697</v>
+        <v>16.42819626548831</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.14940420940877</v>
+        <v>-3.789873518450229</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.72844235003451</v>
+        <v>16.93998462514267</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.26698595317772</v>
+        <v>36.61055548037806</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49.497934066204</v>
+        <v>22.64596437205075</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>57.87975946886927</v>
+        <v>37.38794609687042</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.17710403448279</v>
+        <v>53.27865978368569</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.72970436166705</v>
+        <v>-2.050497193764471</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.36116937027003</v>
+        <v>19.0992243129299</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>56.19595905658534</v>
+        <v>27.0406140075536</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.62157733329691</v>
+        <v>9.758762396386533</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.4635263441609</v>
+        <v>21.80064131428152</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>46.05717715596673</v>
+        <v>33.13153509241045</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.77788102836062</v>
+        <v>5.354640296321353</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>40.93540535439648</v>
+        <v>37.80407736668722</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.6537931959903</v>
+        <v>41.03765924622179</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.81556746606969</v>
+        <v>12.87803169510401</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.04219523805478</v>
+        <v>57.73822409293867</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>55.94778776007129</v>
+        <v>61.87417589191497</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>50.9781822260415</v>
+        <v>47.10221868972999</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>58.44484373031185</v>
+        <v>53.17298633937878</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>60.96808004054873</v>
+        <v>53.7820497172263</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.74046679626179</v>
+        <v>25.45051744420942</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>51.02492536209898</v>
+        <v>39.40298031888388</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>56.97322766901286</v>
+        <v>55.04409949745789</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.78594146777173</v>
+        <v>11.29699408028223</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.81307960272813</v>
+        <v>27.27533967438388</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>47.44082938752068</v>
+        <v>33.71792837043805</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.34925586312165</v>
+        <v>-2.021951371073555</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.42743628296967</v>
+        <v>23.01605518827164</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45.28612618706177</v>
+        <v>27.50339773399443</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.46153351976787</v>
+        <v>1.083975885121514</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.807574387287</v>
+        <v>42.81688452708281</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>56.79509506631118</v>
+        <v>49.6230933355572</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>52.00745949229382</v>
+        <v>39.8862399640588</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>59.80378910333771</v>
+        <v>50.6957488175698</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>62.53651322334147</v>
+        <v>52.78984388359072</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.66879909398082</v>
+        <v>14.45729804029174</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>52.84826180620406</v>
+        <v>42.63145634806716</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>58.51301878343219</v>
+        <v>49.02639363713153</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.40484133323492</v>
+        <v>14.89348328969819</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.96334510961404</v>
+        <v>30.39144539802496</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>52.96319196633588</v>
+        <v>40.64539777504274</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.82492221515643</v>
+        <v>0.5942831322069324</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.88664311818712</v>
+        <v>29.12731978894206</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.95912406011863</v>
+        <v>34.76817743478103</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.45837035982476</v>
+        <v>5.558471387672544</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>59.33321908164644</v>
+        <v>51.79121042582373</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.74595758348872</v>
+        <v>65.09562973514451</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>58.92588968978475</v>
+        <v>54.17898898032833</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>67.00895051138637</v>
+        <v>64.10569918100794</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>69.8938056829225</v>
+        <v>68.94190319952943</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.33920300602538</v>
+        <v>17.69564196031855</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>59.40037052735113</v>
+        <v>52.87261224628659</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>65.40925963078715</v>
+        <v>63.675303107734</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.01551505012525</v>
+        <v>5.52975081984231</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.01072550494838</v>
+        <v>6.182406575082563</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.48532285650354</v>
+        <v>12.79391538673376</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>5.37423600413082</v>
+        <v>-2.657509611598442</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.08600325286486</v>
+        <v>1.712468985338575</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.73110824445064</v>
+        <v>6.431336574402522</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.23246026814341</v>
+        <v>1.264921035150461</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.32676765276902</v>
+        <v>13.73562604499789</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.14502304275339</v>
+        <v>17.37739406018676</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.12006184962907</v>
+        <v>10.80284224589369</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.06269392197355</v>
+        <v>13.99589520973348</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>39.76360041108688</v>
+        <v>19.0204523071655</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.12849137906439</v>
+        <v>-1.409501026671606</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.46670672891354</v>
+        <v>3.868251088109666</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.8666290880263</v>
+        <v>8.723271672388258</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.10541253241689</v>
+        <v>3.762067254327679</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.40580513528549</v>
+        <v>12.58826583231188</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.99555239846943</v>
+        <v>23.06634015034202</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>7.946484060477799</v>
+        <v>-1.922359041184507</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.71492570905195</v>
+        <v>4.311590893463698</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.58412992551171</v>
+        <v>16.57672471262773</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.05516892515465</v>
+        <v>-1.82981903309917</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.41699606946455</v>
+        <v>16.49196647264039</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.39571870729529</v>
+        <v>28.57551790261795</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.18364098821916</v>
+        <v>13.71924622183491</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>40.49382775327365</v>
+        <v>24.59814602424844</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.42657748122536</v>
+        <v>34.77456174709387</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.86549546295012</v>
+        <v>-3.856641036675274</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.24136596047795</v>
+        <v>15.95797882590441</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.4964441396604</v>
+        <v>23.75927217276426</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.10069459224209</v>
+        <v>9.402370657462443</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.94271481048693</v>
+        <v>18.29362340044676</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.85985234562602</v>
+        <v>29.43928391933798</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.87169603099322</v>
+        <v>-0.6971371461956153</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.66349753987788</v>
+        <v>8.904771749040876</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.71985830912718</v>
+        <v>20.76134359214685</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.53856661324814</v>
+        <v>3.77551178024823</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.44033717912121</v>
+        <v>26.72632760984693</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.78740353472664</v>
+        <v>40.8788433270145</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>40.6091364276724</v>
+        <v>29.86556132686958</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>48.16970565630316</v>
+        <v>39.67928401979712</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>51.2215991574311</v>
+        <v>53.66235865112445</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.1328527390794</v>
+        <v>6.219084773030986</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>41.29862274304458</v>
+        <v>29.16784221528004</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>46.90250523525906</v>
+        <v>38.43322676176933</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.48553001019129</v>
+        <v>-3.667724379425209</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.00585617706076</v>
+        <v>0.5666282441569201</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.4122974154978</v>
+        <v>5.635130633828268</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.852498445039402</v>
+        <v>-9.783183954559199</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.38844187507171</v>
+        <v>0.05391619004495496</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.93606596582752</v>
+        <v>2.855745047353842</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.55798608322565</v>
+        <v>-9.956554593095696</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.43856541877649</v>
+        <v>14.95073233407003</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.19811669861647</v>
+        <v>15.59106453448277</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.56301185347179</v>
+        <v>6.635004146846111</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.17457718197648</v>
+        <v>10.64022149065583</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.81457912494131</v>
+        <v>13.81594492581064</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>15.89740630867536</v>
+        <v>-7.253364748569155</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.73695947536061</v>
+        <v>-2.306421182217978</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.42088970020969</v>
+        <v>0.2991506915211453</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.34979812853434</v>
+        <v>16.18690084919738</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.11452966450537</v>
+        <v>29.71520786698583</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.62782182933085</v>
+        <v>34.59387094022405</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.12302632370525</v>
+        <v>5.385759922069489</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.65235436404338</v>
+        <v>21.1987153358598</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>31.42267096534714</v>
+        <v>28.03898550846629</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.18354394081255</v>
+        <v>6.811679397687605</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.26312394393949</v>
+        <v>40.10729598797587</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.17167857075648</v>
+        <v>45.82378865230001</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.42719401175819</v>
+        <v>38.85763531873054</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.40671713976262</v>
+        <v>48.89380470659999</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.25738270173983</v>
+        <v>53.96174690138503</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.58113252680786</v>
+        <v>14.02358529553821</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>39.33952206382676</v>
+        <v>38.63904458399821</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.89542838016501</v>
+        <v>43.62154087637086</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.06190538079026</v>
+        <v>18.54887298696126</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.43070170634018</v>
+        <v>33.75767393903308</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.25961706996029</v>
+        <v>41.33115356547518</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>15.66315182424798</v>
+        <v>2.697211744168097</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>33.30931769397456</v>
+        <v>24.69045125737495</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.21736399119834</v>
+        <v>31.55454029501431</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.25945402267462</v>
+        <v>6.76554838636908</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>44.93068620175682</v>
+        <v>47.0840094764382</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>49.21743455294565</v>
+        <v>57.66492796156255</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.46168811838302</v>
+        <v>50.98945291310658</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.7210440796487</v>
+        <v>62.38011440104492</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>56.72975667054167</v>
+        <v>68.73452408072211</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.33748161160481</v>
+        <v>15.94397816091367</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>46.06058871567704</v>
+        <v>49.41006367681864</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.88221953015923</v>
+        <v>54.93676036212627</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>2.893111047104632</v>
+        <v>9.62806514655038</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.68239666889327</v>
+        <v>11.11475288983188</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.32472888628203</v>
+        <v>16.56111478858483</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2.297443768071265</v>
+        <v>1.05983659246786</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.44697778043397</v>
+        <v>9.334474934468382</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.22521933463344</v>
+        <v>12.94938415587836</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>5.770052963965769</v>
+        <v>6.413186593555679</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.83857973024322</v>
+        <v>22.0720034365481</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.83868266993935</v>
+        <v>24.79873093767182</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.28911556555538</v>
+        <v>16.7769291905844</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.56846930688737</v>
+        <v>21.77949988735558</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.38980035597837</v>
+        <v>25.47393440665188</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.820905762511609</v>
+        <v>10.04769816395807</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.72003605279922</v>
+        <v>11.43203289517865</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.58090962455015</v>
+        <v>17.86220334787016</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>5.109095351412535</v>
+        <v>4.091487248764523</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.10996213522536</v>
+        <v>8.772990407362148</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.88511435440302</v>
+        <v>16.89327366385722</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-0.6715481744989342</v>
+        <v>-3.04844713387331</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>15.01438825761252</v>
+        <v>1.091019357685539</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>19.0415198474158</v>
+        <v>11.10983597328829</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>7.600091028082749</v>
+        <v>-3.831976587085578</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.82895633645287</v>
+        <v>10.3108785300071</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.01099316909945</v>
+        <v>22.59871133026034</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.44204511103943</v>
+        <v>9.536042732079441</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.08120397395952</v>
+        <v>17.60207707576963</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.13088436625558</v>
+        <v>27.94351111417192</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.783948109720344</v>
+        <v>-2.752548446052373</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.6269263996239</v>
+        <v>9.072742873162708</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.35798552998654</v>
+        <v>17.98477268159616</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>11.93624337433528</v>
+        <v>15.08929626350435</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.59020138490781</v>
+        <v>22.31969277052197</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.67327808568984</v>
+        <v>30.78388009171579</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.040778709792804</v>
+        <v>-0.9666989550276952</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.882539611376</v>
+        <v>10.49714062914552</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.04693161595639</v>
+        <v>19.27126898812561</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.03286044278595</v>
+        <v>4.796725749009006</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.91820620787466</v>
+        <v>28.3847845879119</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>38.46242716954173</v>
+        <v>42.24732625262816</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.75988968898071</v>
+        <v>30.03979564604375</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.66440656687235</v>
+        <v>38.20754878000787</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.85266723540929</v>
+        <v>49.41490958391012</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.72916270359582</v>
+        <v>9.870698303858608</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.54648319872215</v>
+        <v>28.28045937742483</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>42.5484794788099</v>
+        <v>35.65114256951287</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.519767853869125</v>
+        <v>2.979074544350865</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.29805559347665</v>
+        <v>1.906422639173076</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.57959550623805</v>
+        <v>4.097469034623632</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.378942594742953</v>
+        <v>-1.171222407036055</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.15920942516582</v>
+        <v>0.346152009109769</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.55491659378419</v>
+        <v>1.751560568885065</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.999773132234384</v>
+        <v>0.8250061979749574</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.85953017910553</v>
+        <v>8.367183264357955</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.4755818376161</v>
+        <v>8.287003793871474</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.20332805834458</v>
+        <v>2.46613258656043</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.0544633055226</v>
+        <v>2.086084630893872</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.68158743912885</v>
+        <v>6.679137379000956</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.176617012171081</v>
+        <v>1.034389356119092</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.63160092416293</v>
+        <v>-2.10007593628719</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.02004380232774</v>
+        <v>0.6141333823503814</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.050470818518487</v>
+        <v>1.832871849734172</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.04000885662658</v>
+        <v>3.013480333314945</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.45704829802669</v>
+        <v>5.906048614819841</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.411120532300829</v>
+        <v>-2.157214270907076</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.08438098524719</v>
+        <v>-2.799843289206965</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.72745802062228</v>
+        <v>2.054816401434035</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.213143481189435</v>
+        <v>-5.473769877369573</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.23899656263461</v>
+        <v>1.053507146696035</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.03519675153253</v>
+        <v>6.084213304976576</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.72044117593159</v>
+        <v>-0.1819239374182295</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.91650768037685</v>
+        <v>3.359823925382305</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.7567290915628</v>
+        <v>10.21542853102445</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>7.476882206564113</v>
+        <v>-6.675020074687982</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.82730152295737</v>
+        <v>-0.9181737427650454</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.11151579900174</v>
+        <v>1.997862308195913</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.63792986291059</v>
+        <v>15.71662299657631</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.26627307690138</v>
+        <v>18.79238352835333</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.97790009261297</v>
+        <v>22.84896093332176</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>5.026421135743331</v>
+        <v>0.8304379983968424</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.64987974642668</v>
+        <v>6.998520903300708</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.42331460778568</v>
+        <v>11.79331489598366</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.2920972144411</v>
+        <v>5.101949280926092</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.95590427323661</v>
+        <v>20.12626822774543</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.10112889064343</v>
+        <v>27.6175557224664</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.60360127108709</v>
+        <v>22.04366263844496</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>40.06817218443739</v>
+        <v>25.84096373568026</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>43.04525588787294</v>
+        <v>34.92023846962012</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.08136708259932</v>
+        <v>8.272645448712584</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.36443716450296</v>
+        <v>19.29161262379932</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>38.90894372165063</v>
+        <v>22.54856031750777</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.52553355475198</v>
+        <v>19.21630642758045</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.8519384682067</v>
+        <v>25.36426361546755</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>40.44116099930059</v>
+        <v>32.97639661896938</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.66687454542291</v>
+        <v>4.635367205999056</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.14642534727588</v>
+        <v>20.32864419571123</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.93297174195039</v>
+        <v>22.96764389891652</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.56393954607279</v>
+        <v>13.20314213541357</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>44.27928500540719</v>
+        <v>38.607828472656</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.22950310702706</v>
+        <v>42.44797440248427</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.57030678119953</v>
+        <v>34.9667978741452</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>52.16241397376631</v>
+        <v>40.34753858655807</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>54.99365593646301</v>
+        <v>42.87488707156386</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.44898045228289</v>
+        <v>26.36586006465396</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>45.12482036814527</v>
+        <v>35.11843567248431</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>50.829415567981</v>
+        <v>42.62083514252897</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.89836345507172</v>
+        <v>11.60485847720568</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>39.50015649184166</v>
+        <v>20.39483714773148</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>43.19819382865114</v>
+        <v>26.55902368629238</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.53788290485005</v>
+        <v>-3.457869209101929</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.02994641447601</v>
+        <v>5.002516743827847</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>39.03643203200219</v>
+        <v>9.58610505173848</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.60196575978267</v>
+        <v>-0.3990183498044324</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.54228035361855</v>
+        <v>20.98390997167253</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>50.65100848365167</v>
+        <v>29.75229137686323</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.90270220818091</v>
+        <v>22.07698414916118</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>54.8788257377653</v>
+        <v>31.7918531963282</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>57.91866857461797</v>
+        <v>35.01737529445272</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.50081669917107</v>
+        <v>8.82452625144758</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.21444208893256</v>
+        <v>26.0765173191904</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>53.73011672284568</v>
+        <v>30.43513423055862</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.0831161074308</v>
+        <v>20.42316340676956</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>45.22270651830951</v>
+        <v>30.409308427661</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>49.30698274298832</v>
+        <v>37.99777033318038</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.5024039878616</v>
+        <v>0.7584393915706151</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.01082539909636</v>
+        <v>15.52353710580408</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>45.26150583412313</v>
+        <v>20.47343570419773</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.22431208845108</v>
+        <v>7.053191963643172</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>53.70124295511123</v>
+        <v>35.26610111340595</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>58.24477588656495</v>
+        <v>46.83400882176571</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.52982331188164</v>
+        <v>43.75909602780266</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>62.80676299468881</v>
+        <v>52.30081968555896</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>65.99585685455018</v>
+        <v>57.4839104852736</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.86670031255949</v>
+        <v>19.56563847722609</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>55.43532880321108</v>
+        <v>41.33091894256717</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>61.32300567833132</v>
+        <v>48.26118282971344</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.00277548401237</v>
+        <v>14.99985115902535</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.63885002916212</v>
+        <v>30.80467592756511</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.23468257079416</v>
+        <v>37.90717482381419</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.424164699620942</v>
+        <v>6.419477468409362</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.09962916045365</v>
+        <v>29.82168430982591</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.83793248914041</v>
+        <v>34.1506419348173</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.13217790695469</v>
+        <v>13.65674171357684</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.16470940767186</v>
+        <v>50.43666645210652</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.10901294901697</v>
+        <v>55.67623384512961</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.60899828472827</v>
+        <v>48.26237733950022</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.26436922124784</v>
+        <v>51.79010137990248</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>44.9939887700361</v>
+        <v>55.19698594782957</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.72979931145007</v>
+        <v>14.63840686104386</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.02673280716714</v>
+        <v>37.19232458623463</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.84980170911255</v>
+        <v>47.84125261730554</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.21231707866077</v>
+        <v>10.67428891776929</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.08251273446383</v>
+        <v>26.74125859337819</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.77604789778685</v>
+        <v>33.19750417796234</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.032232867296296</v>
+        <v>1.281746391981912</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.66700819488108</v>
+        <v>18.09968638867688</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.61955462707009</v>
+        <v>25.52520464803734</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.94936868009209</v>
+        <v>2.087653802786928</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.16773262004712</v>
+        <v>34.2622996457616</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.25327535710226</v>
+        <v>43.3040840201117</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.77934494652142</v>
+        <v>35.84183482595766</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.79504088896822</v>
+        <v>45.61703149418813</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.73498235364896</v>
+        <v>50.56833228501797</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.71955110382675</v>
+        <v>4.531805086108989</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.94842173880559</v>
+        <v>33.40562227662187</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.61246009521468</v>
+        <v>42.67599444151077</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.37823248206328</v>
+        <v>10.0319860612873</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.86201173748767</v>
+        <v>28.78393039941378</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.90320420870685</v>
+        <v>37.74775710265106</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>14.08278137041437</v>
+        <v>-1.66189225932678</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.84978224407418</v>
+        <v>21.80384883279615</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.98322993299812</v>
+        <v>29.96509048182468</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.61808440248251</v>
+        <v>0.677852025109587</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.44067674501434</v>
+        <v>40.49559425400757</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.93259066074135</v>
+        <v>55.20659352884071</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.42481483904184</v>
+        <v>47.35867940669932</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.72672565876751</v>
+        <v>58.0068214256893</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>55.83345491678721</v>
+        <v>67.18759805350905</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.092267137851</v>
+        <v>4.713922378806359</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>45.25804176080142</v>
+        <v>42.303697701685</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.25379058154861</v>
+        <v>53.08158321584261</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>7.560548620708104</v>
+        <v>12.65903509659903</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.75843903429939</v>
+        <v>24.24895441117992</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.67009635431886</v>
+        <v>32.77355729840649</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1.768233319658768</v>
+        <v>5.589981006069593</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>20.3990479450173</v>
+        <v>32.59060877106886</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.52836118240441</v>
+        <v>35.35618070167821</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.52768923749434</v>
+        <v>12.38838666456422</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.47238380642138</v>
+        <v>49.61303731624139</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.76354818840723</v>
+        <v>53.56425641318728</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.11221170475146</v>
+        <v>38.76299854792667</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.6042495098833</v>
+        <v>41.5557738671594</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.6796942037579</v>
+        <v>45.11141701085255</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.01510657292844</v>
+        <v>17.88232271616409</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.17107851283819</v>
+        <v>31.72652979782254</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>40.43751138649288</v>
+        <v>45.64921915620144</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.8099423430022</v>
+        <v>11.58429892122804</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.29877192316422</v>
+        <v>28.36868617570868</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.30798689172512</v>
+        <v>34.29724807134912</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>4.423281220753521</v>
+        <v>-1.031196090466469</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.05752505172765</v>
+        <v>19.51571035922311</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.40434037079878</v>
+        <v>24.29102270149192</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>14.41646202036994</v>
+        <v>1.320762391954659</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.59288967736796</v>
+        <v>37.7356144680228</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.03451699641663</v>
+        <v>46.73671828933112</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.27435770956983</v>
+        <v>36.37341926047694</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.17960792102342</v>
+        <v>47.75381764286607</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.48720666609952</v>
+        <v>53.21370404289923</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.90057035175462</v>
+        <v>8.21991655593083</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.16219534989611</v>
+        <v>37.35702104905676</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.20363654613046</v>
+        <v>46.07820520519604</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.34345341513254</v>
+        <v>13.53031918767182</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.41193849502236</v>
+        <v>31.05583633422507</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.83657685157678</v>
+        <v>37.91895552770127</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.749309458262433</v>
+        <v>-1.297622635388969</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.48830938234327</v>
+        <v>24.21790366366319</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.08764252251946</v>
+        <v>28.9268467354886</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.51303383646864</v>
+        <v>1.830485896149661</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.26292704763236</v>
+        <v>43.68730541416272</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.17939049462062</v>
+        <v>55.83429522678006</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.4153240063928</v>
+        <v>49.41464091315949</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.64463851444858</v>
+        <v>59.78365640028507</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.11123759290383</v>
+        <v>67.16363301818907</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.69236302084813</v>
+        <v>9.328719831979345</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.89145411050266</v>
+        <v>45.47846672404165</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>52.32048328743446</v>
+        <v>56.92349668573092</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-29.88862409714658</v>
+        <v>20.78446952654915</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-11.74931039986986</v>
+        <v>26.73460663785229</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-7.273646939017024</v>
+        <v>34.72415386734789</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-37.25720877825664</v>
+        <v>19.22360052879639</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-16.43621877120984</v>
+        <v>41.58499090875716</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-11.70964640107993</v>
+        <v>44.14336273784769</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-28.36056158694562</v>
+        <v>19.60121204228792</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-5.98986124436307</v>
+        <v>49.10618142758378</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1.080325559977144</v>
+        <v>53.52635683718368</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>0.04247337763055947</v>
+        <v>39.5209328184902</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.687743180930457</v>
+        <v>44.00534610849762</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.2457306616814</v>
+        <v>47.17881337514667</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-21.47916963185791</v>
+        <v>27.1397055671578</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2.271555627713504</v>
+        <v>31.93840846945031</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>9.320388463335204</v>
+        <v>44.64340912839496</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-25.00677335715299</v>
+        <v>21.17428342611685</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-6.523175115135689</v>
+        <v>31.7501794298991</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1.922329054098329</v>
+        <v>37.83958872832442</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-33.05860993064326</v>
+        <v>23.05957523308835</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-12.2153273545254</v>
+        <v>37.60803797060364</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-7.227208475886653</v>
+        <v>42.14901030449197</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-23.80057881070414</v>
+        <v>11.25825260053712</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-1.150611568943247</v>
+        <v>39.48524284433984</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3.944539123472085</v>
+        <v>49.45311991799036</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>4.782886664029612</v>
+        <v>37.7007581131782</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>14.89340950902246</v>
+        <v>49.43696216054775</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.70677178344356</v>
+        <v>54.59047068969524</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-17.09395745964703</v>
+        <v>18.76034346002179</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>7.946694238273885</v>
+        <v>37.65415543939356</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>14.76824008006964</v>
+        <v>46.79630463951028</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-16.71301042543156</v>
+        <v>21.88857243713877</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2.461588077553253</v>
+        <v>32.82775822944964</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>7.522661284925061</v>
+        <v>39.07876156909656</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-24.90091307979606</v>
+        <v>21.5959512913258</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-2.762983100965807</v>
+        <v>40.97356602211522</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2.492379228448613</v>
+        <v>44.02642476369476</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-13.5153577971971</v>
+        <v>12.21008453989932</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>9.820304060007002</v>
+        <v>46.18824344983928</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>15.44422184621728</v>
+        <v>58.08669377919254</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>16.11904034867139</v>
+        <v>52.4533844033922</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.58937175955698</v>
+        <v>61.74360427876852</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.59295497192768</v>
+        <v>68.45041462359623</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-7.356083349200206</v>
+        <v>20.09146926177221</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>18.76375611803038</v>
+        <v>44.94468482128208</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.99746639123187</v>
+        <v>57.57512867370418</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>5.043188528976017</v>
+        <v>8.346701427771094</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.90516768287655</v>
+        <v>23.98609426412177</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.71988633566485</v>
+        <v>31.91727685246368</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.2830548681950198</v>
+        <v>1.638988892505655</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>17.82705933015182</v>
+        <v>24.30173682046298</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.7991018468368</v>
+        <v>27.03940902077357</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.808695757215441</v>
+        <v>8.142970122834466</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.33882414614475</v>
+        <v>45.79880252144684</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.53920352757255</v>
+        <v>50.40262227218663</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.87967195659658</v>
+        <v>43.51406661167975</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.188740997394</v>
+        <v>47.72063893229793</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.14175137288997</v>
+        <v>49.56839529550479</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>9.699890989259421</v>
+        <v>6.710378538680892</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.66075564917768</v>
+        <v>32.40332447648807</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.82220645870525</v>
+        <v>40.33820622368108</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.164106359742492</v>
+        <v>7.737742867724133</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.30008446326951</v>
+        <v>25.00892712791702</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.20669570571982</v>
+        <v>30.16778994759152</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.227726291990356</v>
+        <v>-0.5047458618217391</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.32566803835925</v>
+        <v>17.88674140648068</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.51225580596959</v>
+        <v>22.06111157899506</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>11.57082894197366</v>
+        <v>-0.3813956137603753</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.32159664035212</v>
+        <v>33.50989376166447</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.66185840702428</v>
+        <v>40.68943063905964</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.93329276868246</v>
+        <v>35.44808904559018</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.625457368797</v>
+        <v>44.15768653366973</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.81613489077387</v>
+        <v>47.22328057493809</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.51949213939328</v>
+        <v>0.4215838028506909</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.52737570442381</v>
+        <v>32.87241732122395</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.49441557417393</v>
+        <v>39.6512033244166</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.57530096256817</v>
+        <v>8.776366466309248</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.32523004289309</v>
+        <v>27.07947943698722</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.63160426783787</v>
+        <v>34.9149658579807</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.525886295668348</v>
+        <v>-0.956817637169344</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.77016202408415</v>
+        <v>21.17968568928303</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.18996549873153</v>
+        <v>26.20294102087441</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>18.58019964943317</v>
+        <v>-0.06808698349497888</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.9393415356593</v>
+        <v>40.00642850986128</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.73880376024076</v>
+        <v>51.654257698626</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.00545211294921</v>
+        <v>49.16438690579915</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>50.01927082666045</v>
+        <v>59.01316586343337</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>53.37261288984825</v>
+        <v>65.04648548397043</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.23738413302813</v>
+        <v>2.091913138595221</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.21925118209138</v>
+        <v>41.85764655861175</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.54790417436286</v>
+        <v>51.13172428472809</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.740561070838588</v>
+        <v>7.714496591523652</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.08779727098087</v>
+        <v>10.48897296627339</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.66129950327179</v>
+        <v>16.08992906395016</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1.160924368957506</v>
+        <v>-2.173646269190822</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.61752808598272</v>
+        <v>10.37778218817324</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.38525059383372</v>
+        <v>11.82604071554698</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.795596413883345</v>
+        <v>3.069633547705259</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.50382687618796</v>
+        <v>21.00055975849065</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.43685138164703</v>
+        <v>24.32116969264995</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.04501303938284</v>
+        <v>16.99841399951453</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.6045932160612</v>
+        <v>20.38684694028655</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.47342924363338</v>
+        <v>23.25608692953361</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.98662372791112</v>
+        <v>4.686858413305632</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.77001144791104</v>
+        <v>10.33390927083296</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.41371138778597</v>
+        <v>16.12218631962507</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.13426837243146</v>
+        <v>7.531495117504107</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.78383334855656</v>
+        <v>19.05378331873551</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.48072066368062</v>
+        <v>26.89589342646809</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>4.036672273591086</v>
+        <v>-1.15552386362711</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.53289284180853</v>
+        <v>11.44677299435946</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.53729718493759</v>
+        <v>18.27484419618348</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.92551000056095</v>
+        <v>-0.3302248007030641</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.89006190041889</v>
+        <v>23.15651809561387</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.9960501101954</v>
+        <v>35.5385671754191</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.41424996305773</v>
+        <v>23.52281654520931</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.3581086485915</v>
+        <v>34.94609742957569</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>43.46233723504699</v>
+        <v>40.2080474958038</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.02435351075789</v>
+        <v>-0.3686315757619525</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.89962022234097</v>
+        <v>23.04263232190954</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>39.39378790077897</v>
+        <v>31.70598393352974</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>15.78121302583226</v>
+        <v>12.77706502700723</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.98256459174949</v>
+        <v>24.49033680504565</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.04650201266947</v>
+        <v>32.05044238458917</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>9.532295959680358</v>
+        <v>-0.07676110197264663</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.06655108196903</v>
+        <v>17.36966033746626</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.29822200466216</v>
+        <v>22.35154334508044</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>20.0869417262388</v>
+        <v>3.932391365579321</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.60348806236841</v>
+        <v>32.04371475246346</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.12228628858577</v>
+        <v>44.8842995593366</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.51705124426849</v>
+        <v>38.55856002949906</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.75802250448366</v>
+        <v>47.82623256401267</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.9780721435968</v>
+        <v>52.92989535346639</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.88708415715035</v>
+        <v>6.142423373333905</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.61575792722165</v>
+        <v>33.59539842792939</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.44564396224512</v>
+        <v>42.44844907841762</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-30.59037894823147</v>
+        <v>9.165373798028263</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-12.54238587988992</v>
+        <v>12.63932947716833</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-8.052416140403871</v>
+        <v>20.6285853609439</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-37.99806342708965</v>
+        <v>1.901712096542941</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-17.28397277474616</v>
+        <v>18.7676869844029</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-12.53963771341884</v>
+        <v>22.13050694497167</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-29.188832198538</v>
+        <v>6.843752676212304</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-6.923799397318097</v>
+        <v>30.23126041964581</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1.999605258835519</v>
+        <v>35.7136233227836</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-0.765903721174616</v>
+        <v>24.47636794327183</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>8.838474422161111</v>
+        <v>29.71559389120483</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.41131044637241</v>
+        <v>33.80445606608387</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-22.17775203857131</v>
+        <v>11.47285011276035</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1.484081195915371</v>
+        <v>16.80553547731959</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.524669936534512</v>
+        <v>28.85865531005619</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-25.72630288326773</v>
+        <v>8.043542210838719</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-7.330240257964634</v>
+        <v>17.61951935585602</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-2.713190160370026</v>
+        <v>26.62044100267346</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-33.81193520047967</v>
+        <v>3.371671759190885</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-13.07166770589237</v>
+        <v>14.36708234983218</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-8.063683686122422</v>
+        <v>23.08926418875233</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-24.64590146118236</v>
+        <v>-1.07637677758796</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-2.097457827086596</v>
+        <v>22.44802718592559</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>3.014643089210771</v>
+        <v>36.60172411014177</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>3.955667475505816</v>
+        <v>22.39111897791681</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.02445211467681</v>
+        <v>35.45907417093843</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>17.85478670132795</v>
+        <v>42.91690072556305</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-17.82300973661941</v>
+        <v>2.263537555146943</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.135112111350262</v>
+        <v>22.03572477669002</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.94943805584874</v>
+        <v>32.91538329278379</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-17.34602588505964</v>
+        <v>9.19873487991407</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.740995026178545</v>
+        <v>18.68285046939598</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.818835538692351</v>
+        <v>27.15313946302775</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-25.55841877322145</v>
+        <v>0.7796689981228795</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-3.524176525433797</v>
+        <v>16.55790072699078</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1.753528660551917</v>
+        <v>22.9180895930085</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-14.25524300396378</v>
+        <v>-1.224177209693444</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>8.980306264002724</v>
+        <v>27.64803672365276</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>14.62019604377958</v>
+        <v>42.70220320513214</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.39294530536871</v>
+        <v>37.25641019214622</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.82184906040438</v>
+        <v>46.45561453623894</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.83921643926162</v>
+        <v>54.99186032133821</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-7.98260193683304</v>
+        <v>3.772380121193617</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.05028839283969</v>
+        <v>27.95586862226174</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.28073889955431</v>
+        <v>42.82299088303405</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.79834757766105</v>
+        <v>17.68332205900026</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.42185877955324</v>
+        <v>26.13038940886805</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.02321375654444</v>
+        <v>34.76575857675048</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>12.57669191935265</v>
+        <v>6.718393160090738</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.52010977370412</v>
+        <v>35.62524680870681</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.27415514483572</v>
+        <v>39.50337032220464</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.26025688811617</v>
+        <v>15.98562800101026</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.29037822680228</v>
+        <v>54.11501340044551</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>44.23907248083396</v>
+        <v>57.49854294913492</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>40.55947626179596</v>
+        <v>41.49749534275325</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.14595864273208</v>
+        <v>48.4245292886711</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>50.81892577720463</v>
+        <v>50.9148506595396</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.1931150156665</v>
+        <v>29.71745946521301</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.06718289857558</v>
+        <v>35.69222169845136</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>46.9708332686897</v>
+        <v>54.21193004423614</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.11008949585923</v>
+        <v>22.16043898373542</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.98452412759047</v>
+        <v>32.03963919728344</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.65891267724815</v>
+        <v>36.9089013108192</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.26867614178949</v>
+        <v>4.719375417711614</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.1849257442615</v>
+        <v>24.11417901237836</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.12209879374078</v>
+        <v>28.82608084860445</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.15382094771233</v>
+        <v>6.740107696538377</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.3816680362468</v>
+        <v>40.64738158455203</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>46.45151272489301</v>
+        <v>48.16131565980321</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.76997931480141</v>
+        <v>40.08108746289366</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>50.71332440902235</v>
+        <v>47.47785693618938</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.58143749260088</v>
+        <v>52.33609518092793</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.17096429998272</v>
+        <v>18.74268942123486</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.07713993352284</v>
+        <v>38.99844409206212</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>49.71424925386388</v>
+        <v>47.15522006332596</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.16785450575694</v>
+        <v>21.17994164725287</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.57888000077371</v>
+        <v>32.20801330633702</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>44.61545097596569</v>
+        <v>39.22386287898322</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>19.21455834486863</v>
+        <v>2.54762771645931</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>37.13945475462288</v>
+        <v>26.42153707760482</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.28384054920363</v>
+        <v>31.50927725656354</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.66481373600372</v>
+        <v>7.704386478690715</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>49.42321507647851</v>
+        <v>48.13853565120301</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>53.90700302741476</v>
+        <v>59.2427690145519</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>50.23585796598999</v>
+        <v>51.20875281539832</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.48637995990002</v>
+        <v>60.95909687801915</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>61.51102503628875</v>
+        <v>65.97667414540635</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.3932016987121</v>
+        <v>18.10566774405568</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>51.14151875346808</v>
+        <v>46.10379030369278</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>57.1263498373305</v>
+        <v>58.14141250160176</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>9.15205538085311</v>
+        <v>6.551011422097453</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>24.87641636984582</v>
+        <v>22.55504901696139</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.60396452458382</v>
+        <v>29.64697931601619</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>3.942493908792727</v>
+        <v>0.02472415748905377</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>21.90156556965808</v>
+        <v>23.85313750155817</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.78707098075357</v>
+        <v>24.00172304184174</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>13.17478268500298</v>
+        <v>5.266500431772588</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>32.52660399931109</v>
+        <v>43.33089898830846</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.63598404075326</v>
+        <v>47.31038665081809</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.61653787382576</v>
+        <v>40.54130375958133</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.88356483433156</v>
+        <v>46.00551230788757</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>44.74230154016406</v>
+        <v>45.38091761927176</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>13.54877303777282</v>
+        <v>3.247068936572479</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.33874785689097</v>
+        <v>29.01117211398511</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>40.36193603402951</v>
+        <v>36.9330655004408</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>12.18189375992575</v>
+        <v>9.486787632373474</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.17176010521785</v>
+        <v>27.23761305651857</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>32.00319275787682</v>
+        <v>32.29960582274931</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.378313852579309</v>
+        <v>1.239437847804503</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.32136637194686</v>
+        <v>19.98856931493379</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.42989044988565</v>
+        <v>23.14939062452327</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>15.85069902925028</v>
+        <v>1.606797749493982</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.41485985572545</v>
+        <v>36.17971890457567</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.67672698700113</v>
+        <v>44.52762571929032</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.5851009986017</v>
+        <v>38.60418905124046</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.23161557608031</v>
+        <v>47.61897863594422</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>48.32960092717222</v>
+        <v>48.99317038843684</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>16.27533034719118</v>
+        <v>1.585689806149567</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.1047779391696</v>
+        <v>34.59617461240482</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>43.95290524052682</v>
+        <v>42.30010973771932</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.24470661226883</v>
+        <v>9.814706939642427</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.83507189274477</v>
+        <v>28.23265660930806</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.04447372465332</v>
+        <v>35.86238835885871</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>11.28186127531191</v>
+        <v>-0.6947383086875831</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.35221123438466</v>
+        <v>22.01570839426956</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.67274937675413</v>
+        <v>24.94315625634878</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.44138265578287</v>
+        <v>-0.299079467197366</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.59857112635321</v>
+        <v>39.8073702721749</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>47.29474896465067</v>
+        <v>51.5954830273016</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.23719927921235</v>
+        <v>48.12864596986401</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.19415083386755</v>
+        <v>58.24831092545989</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>56.45112698324964</v>
+        <v>63.29924213993019</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>22.61559347473678</v>
+        <v>0.4087882522336415</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.38775090266267</v>
+        <v>40.32205312511316</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>51.57778916904238</v>
+        <v>50.64885920918837</v>
       </c>
     </row>
   </sheetData>
